--- a/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_3/master.xlsx
+++ b/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_3/master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnck/Documents/Code/race-timing/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0CF58-BE5C-F047-BC2C-D0808D541463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF427FD-A41D-FE49-B011-FD84DA59F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="28020" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28020" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple_detailed_2020" sheetId="1" r:id="rId1"/>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1212,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="0">G3</f>
+        <f>G3</f>
         <v>3.0462962962962966E-2</v>
       </c>
       <c r="G3" s="1">
@@ -1223,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I6" si="1">J3-G3</f>
+        <f>J3-G3</f>
         <v>4.1157407407407406E-2</v>
       </c>
       <c r="J3" s="1">
@@ -1234,26 +1234,26 @@
         <v>26</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L6" si="2">M3-J3</f>
+        <f>M3-J3</f>
         <v>4.5532407407407424E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M6" si="3">S3+L13</f>
+        <f>S3+L13</f>
         <v>0.1171527777777778</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O6" si="4">P3-M3</f>
+        <f>P3-M3</f>
         <v>5.0335648148148143E-2</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P6" si="5">T3+O13</f>
+        <f>T3+O13</f>
         <v>0.16748842592592594</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q6" si="6">F3+I3+L3+O3</f>
+        <f>F3+I3+L3+O3</f>
         <v>0.16748842592592594</v>
       </c>
       <c r="S3" s="1">
@@ -1270,19 +1270,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f>G4</f>
         <v>3.123842592592593E-2</v>
       </c>
       <c r="G4" s="1">
@@ -1290,10 +1290,10 @@
         <v>3.123842592592593E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="1"/>
+        <f>J4-G4</f>
         <v>4.0844907407407399E-2</v>
       </c>
       <c r="J4" s="1">
@@ -1301,29 +1301,29 @@
         <v>7.2083333333333333E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="2"/>
+        <f>M4-J4</f>
         <v>4.5821759259259257E-2</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="3"/>
+        <f>S4+L14</f>
         <v>0.11790509259259259</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="4"/>
+        <f>P4-M4</f>
         <v>5.8333333333333334E-2</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="5"/>
+        <f>T4+O14</f>
         <v>0.17623842592592592</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="6"/>
+        <f>F4+I4+L4+O4</f>
         <v>0.17623842592592592</v>
       </c>
       <c r="S4" s="1">
@@ -1340,19 +1340,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f>G5</f>
         <v>3.1655092592592596E-2</v>
       </c>
       <c r="G5" s="1">
@@ -1360,10 +1360,10 @@
         <v>3.1655092592592596E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f>J5-G5</f>
         <v>4.2916666666666659E-2</v>
       </c>
       <c r="J5" s="1">
@@ -1371,29 +1371,29 @@
         <v>7.4571759259259254E-2</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="2"/>
+        <f>M5-J5</f>
         <v>4.5949074074074073E-2</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="3"/>
+        <f>S5+L15</f>
         <v>0.12052083333333333</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" si="4"/>
+        <f>P5-M5</f>
         <v>5.1296296296296312E-2</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="5"/>
+        <f>T5+O15</f>
         <v>0.17181712962962964</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="6"/>
+        <f>F5+I5+L5+O5</f>
         <v>0.17181712962962964</v>
       </c>
       <c r="S5" s="1">
@@ -1407,19 +1407,19 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f>G6</f>
         <v>3.1747685185185184E-2</v>
       </c>
       <c r="G6" s="1">
@@ -1427,10 +1427,10 @@
         <v>3.1747685185185184E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f>J6-G6</f>
         <v>4.3067129629629636E-2</v>
       </c>
       <c r="J6" s="1">
@@ -1438,29 +1438,29 @@
         <v>7.481481481481482E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="2"/>
+        <f>M6-J6</f>
         <v>4.6747685185185184E-2</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="3"/>
+        <f>S6+L16</f>
         <v>0.1215625</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="4"/>
+        <f>P6-M6</f>
         <v>5.0937499999999983E-2</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="5"/>
+        <f>T6+O16</f>
         <v>0.17249999999999999</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="6"/>
+        <f>F6+I6+L6+O6</f>
         <v>0.17249999999999999</v>
       </c>
       <c r="S6" s="1">
@@ -1513,11 +1513,11 @@
         <v>49</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" ref="L13:L16" si="7">MAX(0,J3-L$10)</f>
+        <f t="shared" ref="L13:L16" si="0">MAX(0,J3-L$10)</f>
         <v>9.1203703703703759E-3</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" ref="O13:O16" si="8">MAX(0,M3-O$10)</f>
+        <f t="shared" ref="O13:O16" si="1">MAX(0,M3-O$10)</f>
         <v>8.8194444444444631E-3</v>
       </c>
       <c r="P13" s="1"/>
@@ -1527,22 +1527,22 @@
         <v>53</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>9.5833333333333326E-3</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>9.5717592592592521E-3</v>
       </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="L15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>1.2071759259259254E-2</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>1.218749999999999E-2</v>
       </c>
       <c r="P15" s="1"/>
@@ -1561,11 +1561,11 @@
         <v>2.9664351851851855E-2</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>1.231481481481482E-2</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>1.3229166666666667E-2</v>
       </c>
       <c r="P16" s="1"/>
@@ -1837,8 +1837,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D16:E35">
-    <sortCondition ref="D16:D35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:T6">
+    <sortCondition ref="B2:B6"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_3/master.xlsx
+++ b/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_3/master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gnck/Documents/Code/race-timing/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF427FD-A41D-FE49-B011-FD84DA59F073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23F93F0-3862-6E41-9B9A-6F3FCE71741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28020" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Pos</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Leg 4</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Anster Haddies Ladies B</t>
@@ -201,6 +198,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -691,13 +691,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -743,7 +744,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1053,20 +1065,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,19 +1125,16 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
       </c>
       <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1133,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="1">
         <f>G2</f>
@@ -1150,7 +1159,7 @@
         <v>2.9664351851851855E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1">
         <f>J2-G2</f>
@@ -1161,41 +1170,37 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1">
+        <f>R2-MIN(L$10,J2)</f>
+        <v>4.7280092592592589E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M6" si="0">J2+L2</f>
+        <v>0.10769675925925926</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1">
-        <f>M2-J2</f>
-        <v>4.7280092592592589E-2</v>
-      </c>
-      <c r="M2" s="1">
-        <f>S2+L12</f>
-        <v>0.10769675925925926</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
       <c r="O2" s="1">
-        <f>P2-M2</f>
+        <f>S2-MIN(O$10,R2)</f>
         <v>5.0613425925925937E-2</v>
       </c>
       <c r="P2" s="1">
-        <f>T2+O12</f>
+        <f t="shared" ref="P2:P3" si="1">M2+O2</f>
         <v>0.15831018518518519</v>
       </c>
-      <c r="Q2" s="1">
-        <f>F2+I2+L2+O2</f>
-        <v>0.15831018518518519</v>
-      </c>
-      <c r="S2" s="1">
+      <c r="R2" s="1">
         <f>B18</f>
         <v>0.10769675925925926</v>
       </c>
-      <c r="T2" s="1">
+      <c r="S2" s="1">
         <f>B19</f>
         <v>0.15831018518518519</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1203,13 +1208,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="1">
         <f>G3</f>
@@ -1220,7 +1225,7 @@
         <v>3.0462962962962966E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1">
         <f>J3-G3</f>
@@ -1231,41 +1236,37 @@
         <v>7.1620370370370376E-2</v>
       </c>
       <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1">
+        <f>R3-MIN(L$10,J3)</f>
+        <v>4.5532407407407424E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1171527777777778</v>
+      </c>
+      <c r="N3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1">
-        <f>M3-J3</f>
-        <v>4.5532407407407424E-2</v>
-      </c>
-      <c r="M3" s="1">
-        <f>S3+L13</f>
-        <v>0.1171527777777778</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
       <c r="O3" s="1">
-        <f>P3-M3</f>
-        <v>5.0335648148148143E-2</v>
+        <f>S3-MIN(O$10,R3)</f>
+        <v>5.0636574074074056E-2</v>
       </c>
       <c r="P3" s="1">
-        <f>T3+O13</f>
-        <v>0.16748842592592594</v>
-      </c>
-      <c r="Q3" s="1">
-        <f>F3+I3+L3+O3</f>
-        <v>0.16748842592592594</v>
-      </c>
-      <c r="S3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16778935185185184</v>
+      </c>
+      <c r="R3" s="1">
         <f>B22</f>
         <v>0.10803240740740742</v>
       </c>
-      <c r="T3" s="1">
+      <c r="S3" s="1">
         <f>B23</f>
         <v>0.15866898148148148</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1273,13 +1274,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="1">
         <f>G4</f>
@@ -1290,7 +1291,7 @@
         <v>3.123842592592593E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1">
         <f>J4-G4</f>
@@ -1301,41 +1302,37 @@
         <v>7.2083333333333333E-2</v>
       </c>
       <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1">
+        <f>R4-MIN(L$10,J4)</f>
+        <v>4.5821759259259257E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f>J4+L4</f>
+        <v>0.11790509259259259</v>
+      </c>
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="1">
-        <f>M4-J4</f>
-        <v>4.5821759259259257E-2</v>
-      </c>
-      <c r="M4" s="1">
-        <f>S4+L14</f>
-        <v>0.11790509259259259</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
       <c r="O4" s="1">
-        <f>P4-M4</f>
-        <v>5.8333333333333334E-2</v>
+        <f>S4-MIN(O$10,R4)</f>
+        <v>5.8344907407407401E-2</v>
       </c>
       <c r="P4" s="1">
-        <f>T4+O14</f>
-        <v>0.17623842592592592</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>F4+I4+L4+O4</f>
-        <v>0.17623842592592592</v>
-      </c>
-      <c r="S4" s="1">
+        <f>M4+O4</f>
+        <v>0.17624999999999999</v>
+      </c>
+      <c r="R4" s="1">
         <f>B26</f>
         <v>0.10832175925925926</v>
       </c>
-      <c r="T4" s="1">
+      <c r="S4" s="1">
         <f>B27</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1343,13 +1340,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="1">
         <f>G5</f>
@@ -1360,7 +1357,7 @@
         <v>3.1655092592592596E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <f>J5-G5</f>
@@ -1371,52 +1368,48 @@
         <v>7.4571759259259254E-2</v>
       </c>
       <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1">
+        <f>R5-MIN(L$10,J5)</f>
+        <v>4.5949074074074073E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12052083333333333</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="1">
-        <f>M5-J5</f>
-        <v>4.5949074074074073E-2</v>
-      </c>
-      <c r="M5" s="1">
-        <f>S5+L15</f>
-        <v>0.12052083333333333</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
       <c r="O5" s="1">
-        <f>P5-M5</f>
+        <f>S5-MIN(O$10,R5)</f>
         <v>5.1296296296296312E-2</v>
       </c>
       <c r="P5" s="1">
-        <f>T5+O15</f>
+        <f t="shared" ref="P5:P6" si="2">M5+O5</f>
         <v>0.17181712962962964</v>
       </c>
-      <c r="Q5" s="1">
-        <f>F5+I5+L5+O5</f>
-        <v>0.17181712962962964</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="R5" s="1">
         <f>B30</f>
         <v>0.10844907407407407</v>
       </c>
-      <c r="T5" s="1">
+      <c r="S5" s="1">
         <f>B31</f>
         <v>0.15962962962962965</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="1">
         <f>G6</f>
@@ -1427,7 +1420,7 @@
         <v>3.1747685185185184E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1">
         <f>J6-G6</f>
@@ -1438,53 +1431,49 @@
         <v>7.481481481481482E-2</v>
       </c>
       <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1">
+        <f>R6-MIN(L$10,J6)</f>
+        <v>4.6747685185185184E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1215625</v>
+      </c>
+      <c r="N6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="1">
-        <f>M6-J6</f>
-        <v>4.6747685185185184E-2</v>
-      </c>
-      <c r="M6" s="1">
-        <f>S6+L16</f>
-        <v>0.1215625</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
       <c r="O6" s="1">
-        <f>P6-M6</f>
-        <v>5.0937499999999983E-2</v>
+        <f>S6-MIN(O$10,R6)</f>
+        <v>5.0937499999999997E-2</v>
       </c>
       <c r="P6" s="1">
-        <f>T6+O16</f>
+        <f t="shared" si="2"/>
         <v>0.17249999999999999</v>
       </c>
-      <c r="Q6" s="1">
-        <f>F6+I6+L6+O6</f>
-        <v>0.17249999999999999</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="R6" s="1">
         <f>B34</f>
         <v>0.10924768518518518</v>
       </c>
-      <c r="T6" s="1">
+      <c r="S6" s="1">
         <f>B35</f>
         <v>0.15927083333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="L10" s="4">
         <v>6.25E-2</v>
@@ -1494,60 +1483,36 @@
       </c>
       <c r="P10" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="1">
-        <f>MAX(0,J2-L$10)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f>MAX(0,M2-O$10)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" ref="L13:L16" si="0">MAX(0,J3-L$10)</f>
-        <v>9.1203703703703759E-3</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" ref="O13:O16" si="1">MAX(0,M3-O$10)</f>
-        <v>8.8194444444444631E-3</v>
-      </c>
+      <c r="L13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>9.5833333333333326E-3</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="1"/>
-        <v>9.5717592592592521E-3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2071759259259254E-2</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.218749999999999E-2</v>
-      </c>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1560,14 +1525,8 @@
       <c r="E16" s="1">
         <v>2.9664351851851855E-2</v>
       </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.231481481481482E-2</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3229166666666667E-2</v>
-      </c>
+      <c r="L16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1794,7 +1753,7 @@
         <v>3.1747685185185184E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -1808,7 +1767,7 @@
         <v>7.481481481481482E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -1822,7 +1781,7 @@
         <v>0.10924768518518518</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -1836,10 +1795,190 @@
         <v>0.15927083333333333</v>
       </c>
     </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:T6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:S6">
     <sortCondition ref="B2:B6"/>
   </sortState>
+  <conditionalFormatting sqref="F44:S48">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_3/master.xlsx
+++ b/src/test/resources/devils_burdens/mass_start_3_4/dnf_leg_3/master.xlsx
@@ -80,7 +80,7 @@
     <t>Leg 4</t>
   </si>
   <si>
-    <t>Anster Haddies Ladies B</t>
+    <t>Team 1</t>
   </si>
   <si>
     <t>Women Senior</t>
@@ -98,7 +98,7 @@
     <t>Rosie Knox</t>
   </si>
   <si>
-    <t>Anster Haddies Mens 1</t>
+    <t>Team 2</t>
   </si>
   <si>
     <t>Open 50+</t>
